--- a/meta/en/16-7-1.xlsx
+++ b/meta/en/16-7-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>(312) 62 60 76</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The proportion of persons employed in political, special and administrative positions in the public institution is calculated compared to to the number of civil servants in public/administrative authorities.</t>
   </si>
   <si>
@@ -149,17 +146,28 @@
     <t>The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io
 Published in Women and Men in the Kyrgyz Republic Statistical Compendium</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,25 +234,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -557,7 +569,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +589,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -640,7 +652,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="240" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,7 +702,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -704,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
